--- a/static/file/data.xlsx
+++ b/static/file/data.xlsx
@@ -14,12 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Xn</t>
-  </si>
-  <si>
-    <t>ri</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+  <si>
+    <t>A_LLEGADA</t>
+  </si>
+  <si>
+    <t>A_SERVICIO</t>
+  </si>
+  <si>
+    <t>TIE_LLEGADA</t>
+  </si>
+  <si>
+    <t>TIE_SERVICIO</t>
+  </si>
+  <si>
+    <t>TIE_EXACTO_LLEGADA</t>
+  </si>
+  <si>
+    <t>TIE_INI_SERVICIO</t>
+  </si>
+  <si>
+    <t>TIE_FIN_SERVICIO</t>
+  </si>
+  <si>
+    <t>TIE_ESPERA</t>
+  </si>
+  <si>
+    <t>TIE_EN_SISTEMA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
   </si>
 </sst>
 </file>
@@ -377,98 +407,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>861</v>
+        <v>0.861</v>
       </c>
       <c r="B2">
-        <v>0.861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.474</v>
+      </c>
+      <c r="C2">
+        <v>0.4489823236632188</v>
+      </c>
+      <c r="D2">
+        <v>2.986191829148242</v>
+      </c>
+      <c r="E2">
+        <v>0.4489823236632188</v>
+      </c>
+      <c r="F2">
+        <v>0.4489823236632188</v>
+      </c>
+      <c r="G2">
+        <v>3.435174152811461</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.986191829148242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>418</v>
+        <v>0.418</v>
       </c>
       <c r="B3">
-        <v>0.418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.874</v>
+      </c>
+      <c r="C3">
+        <v>2.616821539372142</v>
+      </c>
+      <c r="D3">
+        <v>0.5386996133064064</v>
+      </c>
+      <c r="E3">
+        <v>3.065803863035361</v>
+      </c>
+      <c r="F3">
+        <v>3.435174152811461</v>
+      </c>
+      <c r="G3">
+        <v>3.973873766117868</v>
+      </c>
+      <c r="H3">
+        <v>0.3693702897761</v>
+      </c>
+      <c r="I3">
+        <v>0.9080699030825063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>675</v>
+        <v>0.675</v>
       </c>
       <c r="B4">
-        <v>0.675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.274</v>
+      </c>
+      <c r="C4">
+        <v>1.179127764328822</v>
+      </c>
+      <c r="D4">
+        <v>5.178508690376267</v>
+      </c>
+      <c r="E4">
+        <v>4.244931627364183</v>
+      </c>
+      <c r="F4">
+        <v>4.244931627364183</v>
+      </c>
+      <c r="G4">
+        <v>9.42344031774045</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5.178508690376267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>632</v>
+        <v>0.632</v>
       </c>
       <c r="B5">
-        <v>0.632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.674</v>
+      </c>
+      <c r="C5">
+        <v>1.376597654505839</v>
+      </c>
+      <c r="D5">
+        <v>1.57810067227932</v>
+      </c>
+      <c r="E5">
+        <v>5.621529281870022</v>
+      </c>
+      <c r="F5">
+        <v>9.42344031774045</v>
+      </c>
+      <c r="G5">
+        <v>11.00154099001977</v>
+      </c>
+      <c r="H5">
+        <v>3.801911035870428</v>
+      </c>
+      <c r="I5">
+        <v>5.380011708149748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>289</v>
+        <v>0.289</v>
       </c>
       <c r="B6">
-        <v>0.289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.074</v>
+      </c>
+      <c r="C6">
+        <v>3.723985772609115</v>
+      </c>
+      <c r="D6">
+        <v>10.41476074311187</v>
+      </c>
+      <c r="E6">
+        <v>9.345515054479137</v>
+      </c>
+      <c r="F6">
+        <v>11.00154099001977</v>
+      </c>
+      <c r="G6">
+        <v>21.41630173313164</v>
+      </c>
+      <c r="H6">
+        <v>1.656025935540633</v>
+      </c>
+      <c r="I6">
+        <v>12.0707866786525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>646</v>
+        <v>0.646</v>
       </c>
       <c r="B7">
-        <v>0.646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.474</v>
+      </c>
+      <c r="C7">
+        <v>1.310867325598605</v>
+      </c>
+      <c r="D7">
+        <v>2.986191829148242</v>
+      </c>
+      <c r="E7">
+        <v>10.65638238007774</v>
+      </c>
+      <c r="F7">
+        <v>21.41630173313164</v>
+      </c>
+      <c r="G7">
+        <v>24.40249356227988</v>
+      </c>
+      <c r="H7">
+        <v>10.7599193530539</v>
+      </c>
+      <c r="I7">
+        <v>13.74611118220214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>703</v>
+        <v>0.703</v>
       </c>
       <c r="B8">
-        <v>0.703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.874</v>
+      </c>
+      <c r="C8">
+        <v>1.057195161514417</v>
+      </c>
+      <c r="D8">
+        <v>0.5386996133064064</v>
+      </c>
+      <c r="E8">
+        <v>11.71357754159216</v>
+      </c>
+      <c r="F8">
+        <v>24.40249356227988</v>
+      </c>
+      <c r="G8">
+        <v>24.94119317558629</v>
+      </c>
+      <c r="H8">
+        <v>12.68891602068772</v>
+      </c>
+      <c r="I8">
+        <v>13.22761563399413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>460</v>
+        <v>0.46</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.274</v>
+      </c>
+      <c r="C9">
+        <v>2.329586368496989</v>
+      </c>
+      <c r="D9">
+        <v>5.178508690376267</v>
+      </c>
+      <c r="E9">
+        <v>14.04316391008915</v>
+      </c>
+      <c r="F9">
+        <v>24.94119317558629</v>
+      </c>
+      <c r="G9">
+        <v>30.11970186596255</v>
+      </c>
+      <c r="H9">
+        <v>10.89802926549714</v>
+      </c>
+      <c r="I9">
+        <v>16.07653795587341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>917</v>
+        <v>0.917</v>
       </c>
       <c r="B10">
-        <v>0.917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.674</v>
+      </c>
+      <c r="C10">
+        <v>0.2599434201770164</v>
+      </c>
+      <c r="D10">
+        <v>1.57810067227932</v>
+      </c>
+      <c r="E10">
+        <v>14.30310733026616</v>
+      </c>
+      <c r="F10">
+        <v>30.11970186596255</v>
+      </c>
+      <c r="G10">
+        <v>31.69780253824187</v>
+      </c>
+      <c r="H10">
+        <v>15.81659453569639</v>
+      </c>
+      <c r="I10">
+        <v>17.39469520797571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>74</v>
+        <v>0.074</v>
       </c>
       <c r="B11">
         <v>0.074</v>
+      </c>
+      <c r="C11">
+        <v>7.811070557333903</v>
+      </c>
+      <c r="D11">
+        <v>10.41476074311187</v>
+      </c>
+      <c r="E11">
+        <v>22.11417788760006</v>
+      </c>
+      <c r="F11">
+        <v>31.69780253824187</v>
+      </c>
+      <c r="G11">
+        <v>42.11256328135374</v>
+      </c>
+      <c r="H11">
+        <v>9.583624650641809</v>
+      </c>
+      <c r="I11">
+        <v>19.99838539375368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>65.57439108676412</v>
+      </c>
+      <c r="I12">
+        <v>106.9669141832083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>6.557439108676412</v>
+      </c>
+      <c r="I13">
+        <v>10.69669141832084</v>
       </c>
     </row>
   </sheetData>
